--- a/Paris_Olympics2024.xlsx
+++ b/Paris_Olympics2024.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CS625\Fall-2024\github files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC817EF-5156-4D5A-8784-7057A98986F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC9D01-2779-4A2B-BE62-79633F0A325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55515" yWindow="2430" windowWidth="30600" windowHeight="15345" xr2:uid="{9103D877-FF40-4BA2-A192-23A65F0E43C6}"/>
+    <workbookView xWindow="54000" yWindow="2760" windowWidth="30600" windowHeight="15345" xr2:uid="{9103D877-FF40-4BA2-A192-23A65F0E43C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="425">
   <si>
     <t>Africa</t>
   </si>
@@ -1314,9 +1314,6 @@
   </si>
   <si>
     <t>Russia &amp; Belarusia</t>
-  </si>
-  <si>
-    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -1697,19 +1694,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31558207-2F4F-4312-B93B-47129665D289}">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1731,11 +1728,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1758,11 +1752,8 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1779,17 +1770,14 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">C3+D3+E3</f>
+        <f>C3+D3+E3</f>
         <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -1806,17 +1794,14 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>C4+D4+E4</f>
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -1833,17 +1818,14 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>C5+D5+E5</f>
         <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -1860,17 +1842,14 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>C6+D6+E6</f>
         <v>64</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -1887,17 +1866,14 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>C7+D7+E7</f>
         <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1914,17 +1890,14 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>C8+D8+E8</f>
         <v>65</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -1941,17 +1914,14 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>C9+D9+E9</f>
         <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -1968,17 +1938,14 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>C10+D10+E10</f>
         <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1995,17 +1962,14 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>C11+D11+E11</f>
         <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -2022,17 +1986,14 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>C12+D12+E12</f>
         <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2049,17 +2010,14 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>C13+D13+E13</f>
         <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2076,17 +2034,14 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>C14+D14+E14</f>
         <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -2103,17 +2058,14 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>C15+D15+E15</f>
         <v>19</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -2130,17 +2082,14 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>C16+D16+E16</f>
         <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -2157,17 +2106,14 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>C17+D17+E17</f>
         <v>11</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2184,17 +2130,14 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>C18+D18+E18</f>
         <v>11</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -2211,17 +2154,14 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>C19+D19+E19</f>
         <v>8</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -2238,17 +2178,14 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>C20+D20+E20</f>
         <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
       </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2265,17 +2202,14 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>C21+D21+E21</f>
         <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2292,17 +2226,14 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f>C22+D22+E22</f>
         <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -2319,17 +2250,14 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>C23+D23+E23</f>
         <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
       </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -2346,17 +2274,14 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f>C24+D24+E24</f>
         <v>9</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>166</v>
       </c>
@@ -2373,17 +2298,14 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f>C25+D25+E25</f>
         <v>7</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -2400,17 +2322,14 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f>C26+D26+E26</f>
         <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
       </c>
-      <c r="H26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -2427,17 +2346,14 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f>C27+D27+E27</f>
         <v>7</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -2454,17 +2370,14 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f>C28+D28+E28</f>
         <v>5</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
       </c>
-      <c r="H28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -2481,17 +2394,14 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>C29+D29+E29</f>
         <v>5</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -2508,17 +2418,14 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f>C30+D30+E30</f>
         <v>9</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
       </c>
-      <c r="H30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -2535,17 +2442,14 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f>C31+D31+E31</f>
         <v>7</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -2562,17 +2466,14 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f>C32+D32+E32</f>
         <v>7</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2589,17 +2490,14 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>C33+D33+E33</f>
         <v>9</v>
       </c>
       <c r="G33" t="s">
         <v>7</v>
       </c>
-      <c r="H33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2616,17 +2514,14 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>C34+D34+E34</f>
         <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -2643,17 +2538,14 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f>C35+D35+E35</f>
         <v>3</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -2670,17 +2562,14 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f>C36+D36+E36</f>
         <v>7</v>
       </c>
       <c r="G36" t="s">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -2697,17 +2586,14 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f>C37+D37+E37</f>
         <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="H37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2724,17 +2610,14 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f>C38+D38+E38</f>
         <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -2751,17 +2634,14 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f>C39+D39+E39</f>
         <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2778,17 +2658,14 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f>C40+D40+E40</f>
         <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -2805,17 +2682,14 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f>C41+D41+E41</f>
         <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -2832,17 +2706,14 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f>C42+D42+E42</f>
         <v>7</v>
       </c>
       <c r="G42" t="s">
         <v>2</v>
       </c>
-      <c r="H42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -2859,17 +2730,14 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f>C43+D43+E43</f>
         <v>10</v>
       </c>
       <c r="G43" t="s">
         <v>2</v>
       </c>
-      <c r="H43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2886,17 +2754,14 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f>C44+D44+E44</f>
         <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>1</v>
       </c>
-      <c r="H44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2913,17 +2778,14 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f>C45+D45+E45</f>
         <v>6</v>
       </c>
       <c r="G45" t="s">
         <v>7</v>
       </c>
-      <c r="H45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2940,17 +2802,14 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f>C46+D46+E46</f>
         <v>6</v>
       </c>
       <c r="G46" t="s">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2967,22 +2826,19 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f>C47+D47+E47</f>
         <v>6</v>
       </c>
       <c r="G47" t="s">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>423</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2991,52 +2847,46 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C48+D48+E48</f>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C49+D49+E49</f>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3045,25 +2895,22 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>C50+D50+E50</f>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3072,52 +2919,46 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C51+D51+E51</f>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C52+D52+E52</f>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>2</v>
       </c>
-      <c r="H52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3126,25 +2967,22 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>C53+D53+E53</f>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3156,22 +2994,19 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f>C54+D54+E54</f>
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3183,22 +3018,19 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f>C55+D55+E55</f>
         <v>3</v>
       </c>
       <c r="G55" t="s">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3207,25 +3039,22 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C56+D56+E56</f>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3237,22 +3066,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>C57+D57+E57</f>
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3264,22 +3090,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>C58+D58+E58</f>
         <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
       </c>
-      <c r="H58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3291,49 +3114,43 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>C59+D59+E59</f>
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>C60+D60+E60</f>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3342,25 +3159,22 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C61+D61+E61</f>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
         <v>7</v>
       </c>
-      <c r="H61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3372,22 +3186,19 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f>C62+D62+E62</f>
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3396,25 +3207,22 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C63+D63+E63</f>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3426,49 +3234,43 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>C64+D64+E64</f>
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C65+D65+E65</f>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3477,25 +3279,22 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>C66+D66+E66</f>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3504,25 +3303,22 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">C67+D67+E67</f>
-        <v>4</v>
+        <f>C67+D67+E67</f>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3534,49 +3330,43 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f>C68+D68+E68</f>
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f>C69+D69+E69</f>
         <v>4</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="G69" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3588,22 +3378,19 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f>C70+D70+E70</f>
         <v>6</v>
       </c>
       <c r="G70" t="s">
         <v>1</v>
       </c>
-      <c r="H70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3612,52 +3399,46 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>C71+D71+E71</f>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>C72+D72+E72</f>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3666,25 +3447,22 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>C73+D73+E73</f>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3693,25 +3471,22 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>C74+D74+E74</f>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3720,25 +3495,22 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>C75+D75+E75</f>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>2</v>
       </c>
-      <c r="H75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3750,22 +3522,19 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f>C76+D76+E76</f>
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3777,22 +3546,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f>C77+D77+E77</f>
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3804,22 +3570,19 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f>C78+D78+E78</f>
         <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>1</v>
       </c>
-      <c r="H78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3831,49 +3594,43 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f>C79+D79+E79</f>
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C80+D80+E80</f>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3882,25 +3639,22 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>C81+D81+E81</f>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3912,22 +3666,19 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f>C82+D82+E82</f>
         <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3939,22 +3690,19 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f>C83+D83+E83</f>
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3966,22 +3714,19 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f>C84+D84+E84</f>
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3990,25 +3735,22 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>C85+D85+E85</f>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4020,22 +3762,19 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f>C86+D86+E86</f>
         <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4047,22 +3786,19 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f>C87+D87+E87</f>
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4074,22 +3810,19 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f>C88+D88+E88</f>
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>420</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4101,22 +3834,19 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f>C89+D89+E89</f>
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>421</v>
-      </c>
-      <c r="H89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4128,22 +3858,19 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f>C90+D90+E90</f>
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4155,22 +3882,19 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f>C91+D91+E91</f>
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4182,22 +3906,19 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f>C92+D92+E92</f>
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4206,25 +3927,22 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C93+D93+E93</f>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4236,22 +3954,19 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f>C94+D94+E94</f>
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4263,22 +3978,19 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f>C95+D95+E95</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4290,22 +4002,19 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f>C96+D96+E96</f>
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4317,22 +4026,19 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f>C97+D97+E97</f>
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4344,22 +4050,19 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f>C98+D98+E98</f>
         <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>7</v>
       </c>
-      <c r="H98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4371,22 +4074,19 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f>C99+D99+E99</f>
         <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>7</v>
       </c>
-      <c r="H99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4398,22 +4098,19 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f>C100+D100+E100</f>
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4425,22 +4122,19 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f>C101+D101+E101</f>
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4452,22 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f>C102+D102+E102</f>
         <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>7</v>
       </c>
-      <c r="H102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4479,22 +4170,19 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f>C103+D103+E103</f>
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4506,22 +4194,19 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f>C104+D104+E104</f>
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4533,22 +4218,19 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f>C105+D105+E105</f>
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4560,22 +4242,19 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f>C106+D106+E106</f>
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4587,22 +4266,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f>C107+D107+E107</f>
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4614,22 +4290,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f>C108+D108+E108</f>
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4641,22 +4314,19 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f>C109+D109+E109</f>
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4668,22 +4338,19 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f>C110+D110+E110</f>
         <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4695,22 +4362,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f>C111+D111+E111</f>
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4722,22 +4386,19 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f>C112+D112+E112</f>
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4749,22 +4410,19 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f>C113+D113+E113</f>
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4776,22 +4434,19 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f>C114+D114+E114</f>
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4803,22 +4458,19 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f>C115+D115+E115</f>
         <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4830,22 +4482,19 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f>C116+D116+E116</f>
         <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4857,22 +4506,19 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f>C117+D117+E117</f>
         <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>199</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4884,22 +4530,19 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f>C118+D118+E118</f>
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>78</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4911,22 +4554,19 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f>C119+D119+E119</f>
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
       <c r="B120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4938,22 +4578,19 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f>C120+D120+E120</f>
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4965,22 +4602,19 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f>C121+D121+E121</f>
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4992,22 +4626,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f>C122+D122+E122</f>
         <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5019,22 +4650,19 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f>C123+D123+E123</f>
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5046,22 +4674,19 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f>C124+D124+E124</f>
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5073,22 +4698,19 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f>C125+D125+E125</f>
         <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>0</v>
       </c>
-      <c r="H125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5100,22 +4722,19 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f>C126+D126+E126</f>
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>2</v>
-      </c>
-      <c r="H126">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5127,22 +4746,19 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f>C127+D127+E127</f>
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>204</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5154,22 +4770,19 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f>C128+D128+E128</f>
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5181,22 +4794,19 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f>C129+D129+E129</f>
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>2</v>
-      </c>
-      <c r="H129">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5208,22 +4818,19 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f>C130+D130+E130</f>
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5235,22 +4842,19 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">C131+D131+E131</f>
+        <f>C131+D131+E131</f>
         <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5262,22 +4866,19 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f>C132+D132+E132</f>
         <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>0</v>
       </c>
-      <c r="H132">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5289,22 +4890,19 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f>C133+D133+E133</f>
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5316,22 +4914,19 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f>C134+D134+E134</f>
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5343,22 +4938,19 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f>C135+D135+E135</f>
         <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5370,22 +4962,19 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f>C136+D136+E136</f>
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>87</v>
       </c>
       <c r="B137" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5397,22 +4986,19 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <f t="shared" si="2"/>
+        <f>C137+D137+E137</f>
         <v>0</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
       </c>
-      <c r="H137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5424,22 +5010,19 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="2"/>
+        <f>C138+D138+E138</f>
         <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
       </c>
-      <c r="H138">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5451,22 +5034,19 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <f t="shared" si="2"/>
+        <f>C139+D139+E139</f>
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>118</v>
       </c>
       <c r="B140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5478,22 +5058,19 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <f t="shared" si="2"/>
+        <f>C140+D140+E140</f>
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>202</v>
       </c>
       <c r="B141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5505,22 +5082,19 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="2"/>
+        <f>C141+D141+E141</f>
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>3</v>
-      </c>
-      <c r="H141">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5532,22 +5106,19 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <f t="shared" si="2"/>
+        <f>C142+D142+E142</f>
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5559,22 +5130,19 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <f t="shared" si="2"/>
+        <f>C143+D143+E143</f>
         <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>176</v>
       </c>
       <c r="B144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5586,22 +5154,19 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <f t="shared" si="2"/>
+        <f>C144+D144+E144</f>
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5613,22 +5178,19 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="2"/>
+        <f>C145+D145+E145</f>
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5640,22 +5202,19 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="2"/>
+        <f>C146+D146+E146</f>
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>38</v>
       </c>
       <c r="B147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5667,22 +5226,19 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f>C147+D147+E147</f>
         <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>0</v>
       </c>
-      <c r="H147">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5694,22 +5250,19 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f>C148+D148+E148</f>
         <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>0</v>
       </c>
-      <c r="H148">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -5721,22 +5274,19 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f>C149+D149+E149</f>
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>2</v>
-      </c>
-      <c r="H149">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -5748,22 +5298,19 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f>C150+D150+E150</f>
         <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>2</v>
       </c>
-      <c r="H150">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5775,22 +5322,19 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f>C151+D151+E151</f>
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5802,22 +5346,19 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f>C152+D152+E152</f>
         <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>0</v>
       </c>
-      <c r="H152">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5829,22 +5370,19 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f>C153+D153+E153</f>
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>42</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5856,22 +5394,19 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f>C154+D154+E154</f>
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5883,22 +5418,19 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f>C155+D155+E155</f>
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>2</v>
-      </c>
-      <c r="H155">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>203</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5910,22 +5442,19 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f>C156+D156+E156</f>
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5937,22 +5466,19 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f>C157+D157+E157</f>
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5964,22 +5490,19 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f>C158+D158+E158</f>
         <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>0</v>
       </c>
-      <c r="H158">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>182</v>
       </c>
       <c r="B159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5991,22 +5514,19 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f>C159+D159+E159</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>2</v>
-      </c>
-      <c r="H159">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6018,22 +5538,19 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f>C160+D160+E160</f>
         <v>0</v>
       </c>
       <c r="G160" t="s">
         <v>2</v>
       </c>
-      <c r="H160">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6045,22 +5562,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f>C161+D161+E161</f>
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6072,22 +5586,19 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <f t="shared" si="2"/>
+        <f>C162+D162+E162</f>
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -6099,22 +5610,19 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <f t="shared" si="2"/>
+        <f>C163+D163+E163</f>
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>205</v>
       </c>
       <c r="B164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6126,22 +5634,19 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="2"/>
+        <f>C164+D164+E164</f>
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>130</v>
       </c>
       <c r="B165" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -6153,22 +5658,19 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <f t="shared" si="2"/>
+        <f>C165+D165+E165</f>
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>91</v>
       </c>
       <c r="B166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6180,22 +5682,19 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <f t="shared" si="2"/>
+        <f>C166+D166+E166</f>
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>7</v>
-      </c>
-      <c r="H166">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>48</v>
       </c>
       <c r="B167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6207,22 +5706,19 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <f t="shared" si="2"/>
+        <f>C167+D167+E167</f>
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>49</v>
       </c>
       <c r="B168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -6234,22 +5730,19 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <f t="shared" si="2"/>
+        <f>C168+D168+E168</f>
         <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>0</v>
       </c>
-      <c r="H168">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6261,22 +5754,19 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <f t="shared" si="2"/>
+        <f>C169+D169+E169</f>
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>2</v>
-      </c>
-      <c r="H169">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>131</v>
       </c>
       <c r="B170" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6288,22 +5778,19 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <f t="shared" si="2"/>
+        <f>C170+D170+E170</f>
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>207</v>
       </c>
       <c r="B171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6315,22 +5802,19 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <f t="shared" si="2"/>
+        <f>C171+D171+E171</f>
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>3</v>
-      </c>
-      <c r="H171">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>133</v>
       </c>
       <c r="B172" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6342,22 +5826,19 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <f t="shared" si="2"/>
+        <f>C172+D172+E172</f>
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>208</v>
       </c>
       <c r="B173" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6369,22 +5850,19 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <f t="shared" si="2"/>
+        <f>C173+D173+E173</f>
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>93</v>
       </c>
       <c r="B174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6396,22 +5874,19 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <f t="shared" si="2"/>
+        <f>C174+D174+E174</f>
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>7</v>
-      </c>
-      <c r="H174">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>51</v>
       </c>
       <c r="B175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6423,22 +5898,19 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <f t="shared" si="2"/>
+        <f>C175+D175+E175</f>
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>96</v>
       </c>
       <c r="B176" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6450,22 +5922,19 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <f t="shared" si="2"/>
+        <f>C176+D176+E176</f>
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>7</v>
-      </c>
-      <c r="H176">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6477,22 +5946,19 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <f t="shared" si="2"/>
+        <f>C177+D177+E177</f>
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6504,22 +5970,19 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <f t="shared" si="2"/>
+        <f>C178+D178+E178</f>
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>2</v>
-      </c>
-      <c r="H178">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
       <c r="B179" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6531,22 +5994,19 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <f t="shared" si="2"/>
+        <f>C179+D179+E179</f>
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>137</v>
       </c>
       <c r="B180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -6558,22 +6018,19 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <f t="shared" si="2"/>
+        <f>C180+D180+E180</f>
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>53</v>
       </c>
       <c r="B181" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -6585,22 +6042,19 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <f t="shared" si="2"/>
+        <f>C181+D181+E181</f>
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>54</v>
       </c>
       <c r="B182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -6612,22 +6066,19 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <f t="shared" si="2"/>
+        <f>C182+D182+E182</f>
         <v>0</v>
       </c>
       <c r="G182" t="s">
         <v>0</v>
       </c>
-      <c r="H182">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>55</v>
       </c>
       <c r="B183" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -6639,22 +6090,19 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <f t="shared" si="2"/>
+        <f>C183+D183+E183</f>
         <v>0</v>
       </c>
       <c r="G183" t="s">
         <v>0</v>
       </c>
-      <c r="H183">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -6666,22 +6114,19 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <f t="shared" si="2"/>
+        <f>C184+D184+E184</f>
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -6693,22 +6138,19 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <f t="shared" si="2"/>
+        <f>C185+D185+E185</f>
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>58</v>
       </c>
       <c r="B186" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -6720,22 +6162,19 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <f t="shared" si="2"/>
+        <f>C186+D186+E186</f>
         <v>0</v>
       </c>
       <c r="G186" t="s">
         <v>0</v>
       </c>
-      <c r="H186">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>139</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -6747,22 +6186,19 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <f t="shared" si="2"/>
+        <f>C187+D187+E187</f>
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>98</v>
       </c>
       <c r="B188" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -6774,22 +6210,19 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <f t="shared" si="2"/>
+        <f>C188+D188+E188</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>7</v>
-      </c>
-      <c r="H188">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -6801,22 +6234,19 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <f t="shared" si="2"/>
+        <f>C189+D189+E189</f>
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>99</v>
       </c>
       <c r="B190" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -6828,22 +6258,19 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <f t="shared" si="2"/>
+        <f>C190+D190+E190</f>
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>7</v>
-      </c>
-      <c r="H190">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -6855,22 +6282,19 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <f t="shared" si="2"/>
+        <f>C191+D191+E191</f>
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6882,22 +6306,19 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <f t="shared" si="2"/>
+        <f>C192+D192+E192</f>
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>211</v>
       </c>
       <c r="B193" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -6909,22 +6330,19 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <f t="shared" si="2"/>
+        <f>C193+D193+E193</f>
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>100</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -6936,22 +6354,19 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <f t="shared" si="2"/>
+        <f>C194+D194+E194</f>
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>145</v>
       </c>
       <c r="B195" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -6963,22 +6378,19 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F207" si="3">C195+D195+E195</f>
+        <f>C195+D195+E195</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -6990,22 +6402,19 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <f t="shared" si="3"/>
+        <f>C196+D196+E196</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>146</v>
       </c>
       <c r="B197" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -7017,22 +6426,19 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <f t="shared" si="3"/>
+        <f>C197+D197+E197</f>
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -7044,22 +6450,19 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <f t="shared" si="3"/>
+        <f>C198+D198+E198</f>
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>102</v>
       </c>
       <c r="B199" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -7071,22 +6474,19 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <f t="shared" si="3"/>
+        <f>C199+D199+E199</f>
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>7</v>
-      </c>
-      <c r="H199">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>213</v>
       </c>
       <c r="B200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -7098,22 +6498,19 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <f t="shared" si="3"/>
+        <f>C200+D200+E200</f>
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>103</v>
       </c>
       <c r="B201" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -7125,22 +6522,19 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <f t="shared" si="3"/>
+        <f>C201+D201+E201</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>7</v>
-      </c>
-      <c r="H201">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>148</v>
       </c>
       <c r="B202" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7152,22 +6546,19 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <f t="shared" si="3"/>
+        <f>C202+D202+E202</f>
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>104</v>
       </c>
       <c r="B203" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -7179,22 +6570,19 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <f t="shared" si="3"/>
+        <f>C203+D203+E203</f>
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>7</v>
-      </c>
-      <c r="H203">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>105</v>
       </c>
       <c r="B204" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -7206,22 +6594,19 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <f t="shared" si="3"/>
+        <f>C204+D204+E204</f>
         <v>0</v>
       </c>
       <c r="G204" t="s">
         <v>7</v>
       </c>
-      <c r="H204">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>149</v>
       </c>
       <c r="B205" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -7233,22 +6618,19 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <f t="shared" si="3"/>
+        <f>C205+D205+E205</f>
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>64</v>
       </c>
       <c r="B206" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -7260,44 +6642,44 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <f t="shared" si="3"/>
+        <f>C206+D206+E206</f>
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>422</v>
       </c>
       <c r="B207" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>C207+D207+E207</f>
+        <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>424</v>
-      </c>
-      <c r="H207">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G207">
+    <sortCondition descending="1" ref="C2:C207"/>
+    <sortCondition descending="1" ref="D2:D207"/>
+    <sortCondition descending="1" ref="E2:E207"/>
+    <sortCondition ref="B2:B207"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
